--- a/contacts.xlsx
+++ b/contacts.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ben_i\work\gitrepo\autowish\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ben_i\work\gitrepo\pyautowhatsappwish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87CFB7AE-C22C-4BEC-956C-AEFEF59FC368}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334891BC-8AB9-424D-AA4D-8BE47078BD61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -76,10 +75,10 @@
     <t>Wtest</t>
   </si>
   <si>
-    <t>Priya</t>
-  </si>
-  <si>
     <t>xxxx</t>
+  </si>
+  <si>
+    <t>Wtest2</t>
   </si>
 </sst>
 </file>
@@ -407,7 +406,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -446,7 +445,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1">
-        <v>43845</v>
+        <v>7321</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -455,7 +454,7 @@
         <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -483,7 +482,7 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -497,7 +496,7 @@
         <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
